--- a/URS_Certifications 22.11.24.xlsx
+++ b/URS_Certifications 22.11.24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\черновики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EDEEA3-0E25-48FB-BE34-3A509094C19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B7F06D-9774-47A8-ADE6-A3183DA4F101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URS_Certifications 22.11.24" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5837" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5837" uniqueCount="736">
   <si>
     <t>Название компании</t>
   </si>
@@ -1073,9 +1073,6 @@
   </si>
   <si>
     <t>Газпром</t>
-  </si>
-  <si>
-    <t>Линде Инжиниринг"</t>
   </si>
   <si>
     <t>Интеллектуальный менеджмент</t>
@@ -2236,7 +2233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3094,11 +3091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F1348" sqref="F1348"/>
+    <sheetView tabSelected="1" topLeftCell="A666" workbookViewId="0">
+      <selection activeCell="J678" sqref="J678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18185,7 +18182,7 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>24</v>
@@ -18208,7 +18205,7 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>24</v>
@@ -18231,7 +18228,7 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>24</v>
@@ -18254,7 +18251,7 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>24</v>
@@ -18277,7 +18274,7 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>24</v>
@@ -18300,13 +18297,13 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F685" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="E685" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F685" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="G685" s="2">
         <v>45951</v>
@@ -18314,13 +18311,13 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E686" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G686" s="2">
         <v>45951</v>
@@ -18328,13 +18325,13 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E687" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F687" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G687" s="2">
         <v>45951</v>
@@ -18342,7 +18339,7 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E688" s="1" t="s">
         <v>10</v>
@@ -18356,7 +18353,7 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E689" s="1" t="s">
         <v>87</v>
@@ -18370,7 +18367,7 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>24</v>
@@ -18393,7 +18390,7 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>8</v>
@@ -18416,7 +18413,7 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>8</v>
@@ -18439,7 +18436,7 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>8</v>
@@ -18462,7 +18459,7 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>8</v>
@@ -18485,7 +18482,7 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>8</v>
@@ -18508,7 +18505,7 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>8</v>
@@ -18531,13 +18528,13 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E697" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F697" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G697" s="2">
         <v>45927</v>
@@ -18545,13 +18542,13 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E698" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F698" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G698" s="2">
         <v>45927</v>
@@ -18559,7 +18556,7 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>8</v>
@@ -18582,7 +18579,7 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>8</v>
@@ -18605,7 +18602,7 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>8</v>
@@ -18628,7 +18625,7 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>8</v>
@@ -18651,7 +18648,7 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E703" s="1" t="s">
         <v>10</v>
@@ -18665,7 +18662,7 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>24</v>
@@ -18688,7 +18685,7 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>24</v>
@@ -18711,7 +18708,7 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>24</v>
@@ -18734,7 +18731,7 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>24</v>
@@ -18757,7 +18754,7 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>24</v>
@@ -18780,13 +18777,13 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E709" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F709" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G709" s="2">
         <v>45838</v>
@@ -18794,13 +18791,13 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E710" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F710" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G710" s="2">
         <v>45837</v>
@@ -18808,13 +18805,13 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E711" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F711" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G711" s="2">
         <v>45837</v>
@@ -18822,7 +18819,7 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>24</v>
@@ -18845,7 +18842,7 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B713" s="1" t="s">
         <v>24</v>
@@ -18868,7 +18865,7 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>24</v>
@@ -18891,7 +18888,7 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>24</v>
@@ -18914,7 +18911,7 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>24</v>
@@ -18937,7 +18934,7 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>24</v>
@@ -18960,13 +18957,13 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F718" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E718" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F718" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="G718" s="2">
         <v>45888</v>
@@ -18974,7 +18971,7 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>8</v>
@@ -18997,7 +18994,7 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>24</v>
@@ -19020,7 +19017,7 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>24</v>
@@ -19043,7 +19040,7 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E722" s="1" t="s">
         <v>10</v>
@@ -19057,7 +19054,7 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>24</v>
@@ -19080,7 +19077,7 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>24</v>
@@ -19103,13 +19100,13 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E725" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F725" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G725" s="2">
         <v>45951</v>
@@ -19117,13 +19114,13 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E726" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F726" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G726" s="2">
         <v>45951</v>
@@ -19131,13 +19128,13 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E727" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F727" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G727" s="2">
         <v>45956</v>
@@ -19145,7 +19142,7 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E728" s="1" t="s">
         <v>10</v>
@@ -19159,7 +19156,7 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E729" s="1" t="s">
         <v>10</v>
@@ -19173,13 +19170,13 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E730" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F730" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G730" s="2">
         <v>45996</v>
@@ -19187,13 +19184,13 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E731" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F731" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G731" s="2">
         <v>45930</v>
@@ -19201,13 +19198,13 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E732" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F732" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G732" s="2">
         <v>45993</v>
@@ -19215,7 +19212,7 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E733" s="1" t="s">
         <v>10</v>
@@ -19229,7 +19226,7 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E734" s="1" t="s">
         <v>10</v>
@@ -19243,13 +19240,13 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A735" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E735" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F735" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G735" s="2">
         <v>46017</v>
@@ -19257,7 +19254,7 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>24</v>
@@ -19280,7 +19277,7 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>24</v>
@@ -19303,13 +19300,13 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E738" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F738" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G738" s="2">
         <v>45925</v>
@@ -19317,10 +19314,10 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B739" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B739" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="C739" s="1">
         <v>3904014891</v>
@@ -19340,7 +19337,7 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E740" s="1" t="s">
         <v>10</v>
@@ -19354,7 +19351,7 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>24</v>
@@ -19377,7 +19374,7 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>8</v>
@@ -19400,7 +19397,7 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E743" s="1" t="s">
         <v>10</v>
@@ -19414,7 +19411,7 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E744" s="1" t="s">
         <v>87</v>
@@ -19428,7 +19425,7 @@
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>78</v>
@@ -19451,13 +19448,13 @@
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E746" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F746" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G746" s="2">
         <v>45922</v>
@@ -19465,13 +19462,13 @@
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E747" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F747" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G747" s="2">
         <v>45922</v>
@@ -19479,13 +19476,13 @@
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E748" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F748" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G748" s="2">
         <v>45922</v>
@@ -19493,13 +19490,13 @@
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E749" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F749" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G749" s="2">
         <v>45886</v>
@@ -19507,13 +19504,13 @@
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E750" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F750" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G750" s="2">
         <v>45886</v>
@@ -19521,13 +19518,13 @@
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E751" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F751" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G751" s="2">
         <v>45886</v>
@@ -19535,13 +19532,13 @@
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E752" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F752" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G752" s="2">
         <v>45989</v>
@@ -19549,13 +19546,13 @@
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E753" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F753" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G753" s="2">
         <v>45989</v>
@@ -19563,13 +19560,13 @@
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E754" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F754" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G754" s="2">
         <v>45989</v>
@@ -19577,7 +19574,7 @@
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E755" s="1" t="s">
         <v>10</v>
@@ -19591,7 +19588,7 @@
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E756" s="1" t="s">
         <v>16</v>
@@ -19605,7 +19602,7 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E757" s="1" t="s">
         <v>26</v>
@@ -19619,7 +19616,7 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>24</v>
@@ -19642,7 +19639,7 @@
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>24</v>
@@ -19665,7 +19662,7 @@
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E760" s="1" t="s">
         <v>87</v>
@@ -19674,12 +19671,12 @@
         <v>328</v>
       </c>
       <c r="G760" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E761" s="1" t="s">
         <v>10</v>
@@ -19693,7 +19690,7 @@
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E762" s="1" t="s">
         <v>10</v>
@@ -19707,7 +19704,7 @@
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E763" s="1" t="s">
         <v>26</v>
@@ -19721,13 +19718,13 @@
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F764" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="E764" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F764" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="G764" s="2">
         <v>46253</v>
@@ -19735,13 +19732,13 @@
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E765" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F765" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G765" s="2">
         <v>46253</v>
@@ -19749,13 +19746,13 @@
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E766" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F766" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G766" s="2">
         <v>46253</v>
@@ -19763,7 +19760,7 @@
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E767" s="1" t="s">
         <v>87</v>
@@ -19777,7 +19774,7 @@
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E768" s="1" t="s">
         <v>10</v>
@@ -19791,7 +19788,7 @@
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E769" s="1" t="s">
         <v>16</v>
@@ -19805,7 +19802,7 @@
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E770" s="1" t="s">
         <v>26</v>
@@ -19819,13 +19816,13 @@
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E771" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F771" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G771" s="2">
         <v>45887</v>
@@ -19833,13 +19830,13 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E772" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F772" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G772" s="2">
         <v>45909</v>
@@ -19847,18 +19844,18 @@
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E774" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F774" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G774" s="2">
         <v>45912</v>
@@ -19866,18 +19863,18 @@
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E776" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F776" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G776" s="2">
         <v>45911</v>
@@ -19885,18 +19882,18 @@
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A777" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E778" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F778" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G778" s="2">
         <v>45911</v>
@@ -19904,7 +19901,7 @@
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>24</v>
@@ -19927,7 +19924,7 @@
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B780" s="1" t="s">
         <v>24</v>
@@ -19950,13 +19947,13 @@
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F781" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="E781" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F781" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="G781" s="2">
         <v>44909</v>
@@ -19964,7 +19961,7 @@
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B782" s="1" t="s">
         <v>43</v>
@@ -19987,7 +19984,7 @@
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B783" s="1" t="s">
         <v>8</v>
@@ -20010,7 +20007,7 @@
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E784" s="1" t="s">
         <v>10</v>
@@ -20019,12 +20016,12 @@
         <v>328</v>
       </c>
       <c r="G784" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B785" s="1" t="s">
         <v>24</v>
@@ -20047,13 +20044,13 @@
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A786" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E786" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F786" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G786" s="2">
         <v>45912</v>
@@ -20061,13 +20058,13 @@
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A787" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E787" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F787" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G787" s="2">
         <v>45912</v>
@@ -20075,13 +20072,13 @@
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A788" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E788" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F788" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G788" s="2">
         <v>45912</v>
@@ -20089,7 +20086,7 @@
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A789" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B789" s="1" t="s">
         <v>24</v>
@@ -20112,13 +20109,13 @@
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A790" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F790" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="E790" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F790" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="G790" s="2">
         <v>45993</v>
@@ -20126,13 +20123,13 @@
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A791" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E791" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F791" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G791" s="2">
         <v>45993</v>
@@ -20140,13 +20137,13 @@
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A792" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E792" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F792" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G792" s="2">
         <v>45995</v>
@@ -20154,7 +20151,7 @@
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A793" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E793" s="1" t="s">
         <v>10</v>
@@ -20168,7 +20165,7 @@
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A794" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E794" s="1" t="s">
         <v>49</v>
@@ -20182,13 +20179,13 @@
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A795" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E795" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F795" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G795" s="2">
         <v>45989</v>
@@ -20196,13 +20193,13 @@
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A796" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E796" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F796" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G796" s="2">
         <v>45989</v>
@@ -20210,13 +20207,13 @@
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A797" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E797" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F797" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G797" s="2">
         <v>45989</v>
@@ -20224,7 +20221,7 @@
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A798" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E798" s="1" t="s">
         <v>10</v>
@@ -20238,7 +20235,7 @@
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A799" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E799" s="1" t="s">
         <v>16</v>
@@ -20252,7 +20249,7 @@
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A800" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E800" s="1" t="s">
         <v>26</v>
@@ -20266,13 +20263,13 @@
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A801" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E801" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F801" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G801" s="2">
         <v>45570</v>
@@ -20280,13 +20277,13 @@
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E802" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F802" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G802" s="2">
         <v>46431</v>
@@ -20294,13 +20291,13 @@
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E803" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F803" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G803" s="2">
         <v>45549</v>
@@ -20308,13 +20305,13 @@
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E804" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F804" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G804" s="2">
         <v>45888</v>
@@ -20322,7 +20319,7 @@
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A805" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>78</v>
@@ -20345,7 +20342,7 @@
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A806" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B806" s="1" t="s">
         <v>24</v>
@@ -20368,7 +20365,7 @@
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>24</v>
@@ -20391,7 +20388,7 @@
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B808" s="1" t="s">
         <v>24</v>
@@ -20414,7 +20411,7 @@
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A809" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>24</v>
@@ -20437,7 +20434,7 @@
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A810" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E810" s="1" t="s">
         <v>10</v>
@@ -20462,7 +20459,7 @@
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A812" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E812" s="1" t="s">
         <v>10</v>
@@ -20476,7 +20473,7 @@
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E813" s="1" t="s">
         <v>65</v>
@@ -20490,7 +20487,7 @@
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E814" s="1" t="s">
         <v>10</v>
@@ -20504,7 +20501,7 @@
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A815" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E815" s="1" t="s">
         <v>16</v>
@@ -20518,7 +20515,7 @@
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A816" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E816" s="1" t="s">
         <v>26</v>
@@ -20565,7 +20562,7 @@
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A820" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E820" s="1" t="s">
         <v>65</v>
@@ -20621,7 +20618,7 @@
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A824" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D824" s="1" t="s">
         <v>14</v>
@@ -20638,7 +20635,7 @@
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A825" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D825" s="1" t="s">
         <v>14</v>
@@ -20655,7 +20652,7 @@
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A826" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D826" s="1" t="s">
         <v>14</v>
@@ -20683,7 +20680,7 @@
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A828" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>8</v>
@@ -20706,7 +20703,7 @@
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A829" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B829" s="1" t="s">
         <v>24</v>
@@ -20729,7 +20726,7 @@
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A830" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B830" s="1" t="s">
         <v>24</v>
@@ -20752,7 +20749,7 @@
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A831" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>24</v>
@@ -20775,13 +20772,13 @@
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A832" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F832" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="E832" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F832" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="G832" s="2">
         <v>45998</v>
@@ -20789,7 +20786,7 @@
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A833" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>24</v>
@@ -20812,13 +20809,13 @@
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A834" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E834" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F834" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G834" s="2">
         <v>46004</v>
@@ -20826,13 +20823,13 @@
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A835" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E835" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F835" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G835" s="2">
         <v>46004</v>
@@ -20873,7 +20870,7 @@
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A839" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B839" s="1" t="s">
         <v>8</v>
@@ -20896,7 +20893,7 @@
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A840" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B840" s="1" t="s">
         <v>8</v>
@@ -20919,7 +20916,7 @@
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A841" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B841" s="1" t="s">
         <v>8</v>
@@ -20942,7 +20939,7 @@
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A842" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B842" s="1" t="s">
         <v>8</v>
@@ -20965,7 +20962,7 @@
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A843" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B843" s="1" t="s">
         <v>8</v>
@@ -20991,7 +20988,7 @@
         <v>10</v>
       </c>
       <c r="F844" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G844" s="2">
         <v>45989</v>
@@ -20999,13 +20996,13 @@
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A845" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E845" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F845" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G845" s="1" t="e">
         <v>#REF!</v>
@@ -21013,13 +21010,13 @@
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A846" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E846" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F846" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G846" s="1" t="e">
         <v>#REF!</v>
@@ -21027,13 +21024,13 @@
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A847" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E847" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F847" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G847" s="1" t="e">
         <v>#REF!</v>
@@ -21041,7 +21038,7 @@
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A848" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>24</v>
@@ -21064,7 +21061,7 @@
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A849" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B849" s="1" t="s">
         <v>8</v>
@@ -21087,7 +21084,7 @@
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A850" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B850" s="1" t="s">
         <v>24</v>
@@ -21110,7 +21107,7 @@
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A851" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B851" s="1" t="s">
         <v>24</v>
@@ -21133,13 +21130,13 @@
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A852" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E852" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F852" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G852" s="1" t="e">
         <v>#REF!</v>
@@ -21147,7 +21144,7 @@
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A853" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B853" s="1" t="s">
         <v>24</v>
@@ -21170,7 +21167,7 @@
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A854" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B854" s="1" t="s">
         <v>24</v>
@@ -21193,7 +21190,7 @@
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A855" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B855" s="1" t="s">
         <v>24</v>
@@ -21216,7 +21213,7 @@
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A856" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>24</v>
@@ -21239,7 +21236,7 @@
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A857" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D857" s="1" t="s">
         <v>9</v>
@@ -21256,7 +21253,7 @@
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A858" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B858" s="1" t="s">
         <v>24</v>
@@ -21279,7 +21276,7 @@
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A859" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B859" s="1" t="s">
         <v>24</v>
@@ -21302,7 +21299,7 @@
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A860" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B860" s="1" t="s">
         <v>24</v>
@@ -21325,7 +21322,7 @@
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A861" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B861" s="1" t="s">
         <v>24</v>
@@ -21348,7 +21345,7 @@
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A862" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B862" s="1" t="s">
         <v>24</v>
@@ -21371,7 +21368,7 @@
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A863" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B863" s="1" t="s">
         <v>24</v>
@@ -21394,7 +21391,7 @@
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A864" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B864" s="1" t="s">
         <v>24</v>
@@ -21417,7 +21414,7 @@
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A865" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C865" s="1">
         <v>323358650</v>
@@ -21437,7 +21434,7 @@
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A866" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C866" s="1">
         <v>323358650</v>
@@ -21460,7 +21457,7 @@
         <v>10</v>
       </c>
       <c r="F867" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G867" s="2">
         <v>46082</v>
@@ -21471,7 +21468,7 @@
         <v>16</v>
       </c>
       <c r="F868" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G868" s="2">
         <v>46082</v>
@@ -21482,7 +21479,7 @@
         <v>26</v>
       </c>
       <c r="F869" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G869" s="2">
         <v>46082</v>
@@ -21490,10 +21487,10 @@
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A870" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B870" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="B870" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="C870" s="1">
         <v>3904014891</v>
@@ -21513,13 +21510,13 @@
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A871" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E871" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F871" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G871" s="2">
         <v>46086</v>
@@ -21549,7 +21546,7 @@
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A874" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E874" s="1" t="s">
         <v>10</v>
@@ -21563,13 +21560,13 @@
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A875" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E875" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F875" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G875" s="2">
         <v>46116</v>
@@ -21577,13 +21574,13 @@
     </row>
     <row r="876" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A876" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E876" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F876" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G876" s="2">
         <v>46109</v>
@@ -21591,7 +21588,7 @@
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A877" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B877" s="1" t="s">
         <v>24</v>
@@ -21614,7 +21611,7 @@
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A878" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B878" s="1" t="s">
         <v>43</v>
@@ -21637,10 +21634,10 @@
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A879" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E879" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="E879" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="F879" s="1" t="s">
         <v>328</v>
@@ -21651,7 +21648,7 @@
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A880" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B880" s="1" t="s">
         <v>8</v>
@@ -21674,7 +21671,7 @@
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A881" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>8</v>
@@ -21697,13 +21694,13 @@
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A882" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E882" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F882" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G882" s="2">
         <v>46153</v>
@@ -21711,13 +21708,13 @@
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A883" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E883" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F883" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G883" s="2">
         <v>45960</v>
@@ -21725,7 +21722,7 @@
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A884" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B884" s="1" t="s">
         <v>78</v>
@@ -21748,7 +21745,7 @@
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A885" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>78</v>
@@ -21771,7 +21768,7 @@
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A886" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E886" s="1" t="s">
         <v>10</v>
@@ -21785,7 +21782,7 @@
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A887" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E887" s="1" t="s">
         <v>16</v>
@@ -21799,7 +21796,7 @@
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A888" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E888" s="1" t="s">
         <v>26</v>
@@ -21813,7 +21810,7 @@
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A889" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B889" s="1" t="s">
         <v>24</v>
@@ -21836,7 +21833,7 @@
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A890" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B890" s="1" t="s">
         <v>24</v>
@@ -21859,7 +21856,7 @@
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A891" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B891" s="1" t="s">
         <v>24</v>
@@ -21882,13 +21879,13 @@
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A892" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E892" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F892" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G892" s="2">
         <v>45043</v>
@@ -21896,13 +21893,13 @@
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A893" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E893" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F893" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G893" s="2">
         <v>45043</v>
@@ -21910,13 +21907,13 @@
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A894" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E894" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F894" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G894" s="2">
         <v>45043</v>
@@ -21924,7 +21921,7 @@
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A895" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E895" s="1" t="s">
         <v>83</v>
@@ -21938,12 +21935,12 @@
     </row>
     <row r="896" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A896" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A897" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B897" s="1" t="s">
         <v>24</v>
@@ -21966,7 +21963,7 @@
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A898" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B898" s="1" t="s">
         <v>24</v>
@@ -21989,7 +21986,7 @@
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A899" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B899" s="1" t="s">
         <v>24</v>
@@ -22012,7 +22009,7 @@
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A900" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B900" s="1" t="s">
         <v>8</v>
@@ -22035,7 +22032,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B901" s="1" t="s">
         <v>24</v>
@@ -22061,7 +22058,7 @@
         <v>10</v>
       </c>
       <c r="F902" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G902" s="1" t="e">
         <v>#REF!</v>
@@ -22072,7 +22069,7 @@
         <v>16</v>
       </c>
       <c r="F903" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G903" s="1" t="e">
         <v>#REF!</v>
@@ -22080,7 +22077,7 @@
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A904" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B904" s="1" t="s">
         <v>8</v>
@@ -22103,7 +22100,7 @@
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A905" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B905" s="1" t="s">
         <v>8</v>
@@ -22126,7 +22123,7 @@
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A906" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B906" s="1" t="s">
         <v>24</v>
@@ -22149,7 +22146,7 @@
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A907" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B907" s="1" t="s">
         <v>24</v>
@@ -22172,7 +22169,7 @@
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A908" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B908" s="1" t="s">
         <v>24</v>
@@ -22198,7 +22195,7 @@
         <v>10</v>
       </c>
       <c r="F909" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G909" s="1" t="e">
         <v>#REF!</v>
@@ -22209,7 +22206,7 @@
         <v>16</v>
       </c>
       <c r="F910" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G910" s="1" t="e">
         <v>#REF!</v>
@@ -22220,7 +22217,7 @@
         <v>26</v>
       </c>
       <c r="F911" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G911" s="1" t="e">
         <v>#REF!</v>
@@ -22231,7 +22228,7 @@
         <v>10</v>
       </c>
       <c r="F912" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G912" s="1" t="e">
         <v>#REF!</v>
@@ -22242,7 +22239,7 @@
         <v>16</v>
       </c>
       <c r="F913" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G913" s="1" t="e">
         <v>#REF!</v>
@@ -22253,7 +22250,7 @@
         <v>26</v>
       </c>
       <c r="F914" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G914" s="1" t="e">
         <v>#REF!</v>
@@ -22264,7 +22261,7 @@
         <v>10</v>
       </c>
       <c r="F915" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G915" s="1" t="e">
         <v>#REF!</v>
@@ -22275,7 +22272,7 @@
         <v>16</v>
       </c>
       <c r="F916" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G916" s="1" t="e">
         <v>#REF!</v>
@@ -22286,7 +22283,7 @@
         <v>26</v>
       </c>
       <c r="F917" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G917" s="1" t="e">
         <v>#REF!</v>
@@ -22297,7 +22294,7 @@
         <v>10</v>
       </c>
       <c r="F918" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G918" s="1" t="e">
         <v>#REF!</v>
@@ -22308,7 +22305,7 @@
         <v>16</v>
       </c>
       <c r="F919" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G919" s="1" t="e">
         <v>#REF!</v>
@@ -22319,7 +22316,7 @@
         <v>26</v>
       </c>
       <c r="F920" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G920" s="1" t="e">
         <v>#REF!</v>
@@ -22330,7 +22327,7 @@
         <v>10</v>
       </c>
       <c r="F921" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G921" s="1" t="e">
         <v>#REF!</v>
@@ -22341,7 +22338,7 @@
         <v>16</v>
       </c>
       <c r="F922" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G922" s="1" t="e">
         <v>#REF!</v>
@@ -22352,7 +22349,7 @@
         <v>26</v>
       </c>
       <c r="F923" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G923" s="1" t="e">
         <v>#REF!</v>
@@ -22360,10 +22357,10 @@
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A924" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B924" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B924" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="C924" s="1">
         <v>7809022120</v>
@@ -22383,10 +22380,10 @@
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A925" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B925" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B925" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="C925" s="1">
         <v>7809022120</v>
@@ -22409,7 +22406,7 @@
         <v>10</v>
       </c>
       <c r="F926" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G926" s="1" t="e">
         <v>#REF!</v>
@@ -22420,7 +22417,7 @@
         <v>16</v>
       </c>
       <c r="F927" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G927" s="1" t="e">
         <v>#REF!</v>
@@ -22431,7 +22428,7 @@
         <v>26</v>
       </c>
       <c r="F928" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G928" s="1" t="e">
         <v>#REF!</v>
@@ -22439,13 +22436,13 @@
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A929" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E929" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F929" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G929" s="2">
         <v>46095</v>
@@ -22453,7 +22450,7 @@
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A930" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B930" s="1" t="s">
         <v>8</v>
@@ -22476,7 +22473,7 @@
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A931" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>78</v>
@@ -22499,13 +22496,13 @@
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A932" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E932" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F932" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G932" s="2">
         <v>46195</v>
@@ -22513,13 +22510,13 @@
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A933" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E933" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F933" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G933" s="2">
         <v>46201</v>
@@ -22527,13 +22524,13 @@
     </row>
     <row r="934" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A934" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E934" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F934" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G934" s="2">
         <v>45100</v>
@@ -22544,7 +22541,7 @@
         <v>10</v>
       </c>
       <c r="F935" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G935" s="1" t="e">
         <v>#REF!</v>
@@ -22552,7 +22549,7 @@
     </row>
     <row r="936" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A936" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B936" s="1" t="s">
         <v>24</v>
@@ -22570,12 +22567,12 @@
         <v>11</v>
       </c>
       <c r="G936" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A937" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B937" s="1" t="s">
         <v>24</v>
@@ -22601,7 +22598,7 @@
         <v>10</v>
       </c>
       <c r="F938" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G938" s="1" t="e">
         <v>#REF!</v>
@@ -22609,7 +22606,7 @@
     </row>
     <row r="939" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A939" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B939" s="1" t="s">
         <v>24</v>
@@ -22632,7 +22629,7 @@
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A940" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B940" s="1" t="s">
         <v>24</v>
@@ -22644,7 +22641,7 @@
         <v>200</v>
       </c>
       <c r="E940" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F940" s="1" t="s">
         <v>11</v>
@@ -22655,7 +22652,7 @@
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A941" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B941" s="1" t="s">
         <v>24</v>
@@ -22678,7 +22675,7 @@
     </row>
     <row r="942" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A942" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E942" s="1" t="s">
         <v>83</v>
@@ -22687,12 +22684,12 @@
         <v>84</v>
       </c>
       <c r="G942" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A943" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E943" s="1" t="s">
         <v>10</v>
@@ -22706,7 +22703,7 @@
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A944" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E944" s="1" t="s">
         <v>16</v>
@@ -22723,7 +22720,7 @@
         <v>10</v>
       </c>
       <c r="F945" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G945" s="1" t="e">
         <v>#REF!</v>
@@ -22734,7 +22731,7 @@
         <v>10</v>
       </c>
       <c r="F946" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G946" s="1" t="e">
         <v>#REF!</v>
@@ -22745,7 +22742,7 @@
         <v>16</v>
       </c>
       <c r="F947" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G947" s="1" t="e">
         <v>#REF!</v>
@@ -22756,7 +22753,7 @@
         <v>26</v>
       </c>
       <c r="F948" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G948" s="1" t="e">
         <v>#REF!</v>
@@ -22764,7 +22761,7 @@
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A949" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E949" s="1" t="s">
         <v>10</v>
@@ -22778,7 +22775,7 @@
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A950" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D950" s="1" t="s">
         <v>9</v>
@@ -22787,7 +22784,7 @@
         <v>51</v>
       </c>
       <c r="F950" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G950" s="2">
         <v>46171</v>
@@ -22795,7 +22792,7 @@
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A951" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B951" s="1" t="s">
         <v>24</v>
@@ -22818,21 +22815,21 @@
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A952" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E952" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F952" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G952" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A953" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E953" s="1" t="s">
         <v>65</v>
@@ -22846,10 +22843,10 @@
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A954" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E954" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F954" s="1" t="s">
         <v>328</v>
@@ -22860,7 +22857,7 @@
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A955" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E955" s="1" t="s">
         <v>10</v>
@@ -22874,7 +22871,7 @@
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A956" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B956" s="1" t="s">
         <v>24</v>
@@ -22897,7 +22894,7 @@
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A957" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B957" s="1" t="s">
         <v>24</v>
@@ -22920,7 +22917,7 @@
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A958" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B958" s="1" t="s">
         <v>8</v>
@@ -22943,7 +22940,7 @@
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A959" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B959" s="1" t="s">
         <v>8</v>
@@ -22966,7 +22963,7 @@
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A960" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B960" s="1" t="s">
         <v>8</v>
@@ -22989,7 +22986,7 @@
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A961" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B961" s="1" t="s">
         <v>8</v>
@@ -23012,7 +23009,7 @@
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A962" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B962" s="1" t="s">
         <v>8</v>
@@ -23035,7 +23032,7 @@
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A963" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E963" s="1" t="s">
         <v>10</v>
@@ -23049,7 +23046,7 @@
     </row>
     <row r="964" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A964" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E964" s="1" t="s">
         <v>16</v>
@@ -23063,7 +23060,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E965" s="1" t="s">
         <v>26</v>
@@ -23077,7 +23074,7 @@
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A966" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E966" s="1" t="s">
         <v>49</v>
@@ -23091,7 +23088,7 @@
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A967" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E967" s="1" t="s">
         <v>329</v>
@@ -23105,7 +23102,7 @@
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A968" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B968" s="1" t="s">
         <v>8</v>
@@ -23164,7 +23161,7 @@
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A972" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B972" s="1" t="s">
         <v>24</v>
@@ -23190,7 +23187,7 @@
         <v>10</v>
       </c>
       <c r="F973" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G973" s="1" t="e">
         <v>#REF!</v>
@@ -23201,7 +23198,7 @@
         <v>10</v>
       </c>
       <c r="F974" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G974" s="1" t="e">
         <v>#REF!</v>
@@ -23212,7 +23209,7 @@
         <v>10</v>
       </c>
       <c r="F975" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G975" s="1" t="e">
         <v>#REF!</v>
@@ -23223,7 +23220,7 @@
         <v>16</v>
       </c>
       <c r="F976" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G976" s="1" t="e">
         <v>#REF!</v>
@@ -23234,7 +23231,7 @@
         <v>26</v>
       </c>
       <c r="F977" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G977" s="1" t="e">
         <v>#REF!</v>
@@ -23245,7 +23242,7 @@
         <v>10</v>
       </c>
       <c r="F978" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G978" s="1" t="e">
         <v>#REF!</v>
@@ -23256,7 +23253,7 @@
         <v>16</v>
       </c>
       <c r="F979" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G979" s="1" t="e">
         <v>#REF!</v>
@@ -23267,7 +23264,7 @@
         <v>26</v>
       </c>
       <c r="F980" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G980" s="1" t="e">
         <v>#REF!</v>
@@ -23278,7 +23275,7 @@
         <v>10</v>
       </c>
       <c r="F981" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G981" s="1" t="e">
         <v>#REF!</v>
@@ -23289,7 +23286,7 @@
         <v>87</v>
       </c>
       <c r="F982" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G982" s="1" t="e">
         <v>#REF!</v>
@@ -23300,7 +23297,7 @@
         <v>10</v>
       </c>
       <c r="F983" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G983" s="1" t="e">
         <v>#REF!</v>
@@ -23311,7 +23308,7 @@
         <v>16</v>
       </c>
       <c r="F984" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G984" s="1" t="e">
         <v>#REF!</v>
@@ -23322,7 +23319,7 @@
         <v>87</v>
       </c>
       <c r="F985" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G985" s="1" t="e">
         <v>#REF!</v>
@@ -23330,7 +23327,7 @@
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A986" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B986" s="1" t="s">
         <v>24</v>
@@ -23353,7 +23350,7 @@
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A987" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B987" s="1" t="s">
         <v>24</v>
@@ -23370,7 +23367,7 @@
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A988" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B988" s="1" t="s">
         <v>24</v>
@@ -23387,7 +23384,7 @@
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A989" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B989" s="1" t="s">
         <v>24</v>
@@ -23413,7 +23410,7 @@
         <v>10</v>
       </c>
       <c r="F990" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G990" s="1" t="e">
         <v>#REF!</v>
@@ -23424,7 +23421,7 @@
         <v>10</v>
       </c>
       <c r="F991" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G991" s="1" t="e">
         <v>#REF!</v>
@@ -23435,7 +23432,7 @@
         <v>16</v>
       </c>
       <c r="F992" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G992" s="1" t="e">
         <v>#REF!</v>
@@ -23446,7 +23443,7 @@
         <v>26</v>
       </c>
       <c r="F993" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G993" s="1" t="e">
         <v>#REF!</v>
@@ -23457,7 +23454,7 @@
         <v>10</v>
       </c>
       <c r="F994" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G994" s="2">
         <v>45090</v>
@@ -23468,7 +23465,7 @@
         <v>10</v>
       </c>
       <c r="F995" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G995" s="2">
         <v>46206</v>
@@ -23476,7 +23473,7 @@
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A996" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B996" s="1" t="s">
         <v>24</v>
@@ -23499,7 +23496,7 @@
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A997" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B997" s="1" t="s">
         <v>24</v>
@@ -23522,7 +23519,7 @@
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A998" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B998" s="1" t="s">
         <v>24</v>
@@ -23545,7 +23542,7 @@
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A999" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B999" s="1" t="s">
         <v>24</v>
@@ -23568,15 +23565,15 @@
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1000" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1002" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1002" s="1">
         <v>7729050901</v>
@@ -23596,7 +23593,7 @@
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1003" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E1003" s="1" t="s">
         <v>16</v>
@@ -23610,7 +23607,7 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1004" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B1004" s="1" t="s">
         <v>24</v>
@@ -23633,7 +23630,7 @@
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1005" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1005" s="1" t="s">
         <v>24</v>
@@ -23656,7 +23653,7 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1006" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1006" s="1" t="s">
         <v>24</v>
@@ -23679,7 +23676,7 @@
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1007" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E1007" s="1" t="s">
         <v>10</v>
@@ -23693,7 +23690,7 @@
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1008" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E1008" s="1" t="s">
         <v>87</v>
@@ -23707,7 +23704,7 @@
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1009" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E1009" s="1" t="s">
         <v>65</v>
@@ -23721,7 +23718,7 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1010" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E1010" s="1" t="s">
         <v>329</v>
@@ -23735,7 +23732,7 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1011" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B1011" s="1" t="s">
         <v>8</v>
@@ -23758,7 +23755,7 @@
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1012" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B1012" s="1" t="s">
         <v>8</v>
@@ -23781,7 +23778,7 @@
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1013" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B1013" s="1" t="s">
         <v>24</v>
@@ -23804,7 +23801,7 @@
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1014" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B1014" s="1" t="s">
         <v>24</v>
@@ -23827,7 +23824,7 @@
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1015" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B1015" s="1" t="s">
         <v>24</v>
@@ -23850,7 +23847,7 @@
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1016" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B1016" s="1" t="s">
         <v>24</v>
@@ -23873,13 +23870,13 @@
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1017" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E1017" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1017" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1017" s="2">
         <v>46277</v>
@@ -23887,13 +23884,13 @@
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1018" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E1018" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1018" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1018" s="2">
         <v>46297</v>
@@ -23901,7 +23898,7 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1019" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B1019" s="1" t="s">
         <v>24</v>
@@ -23924,7 +23921,7 @@
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1020" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B1020" s="1" t="s">
         <v>24</v>
@@ -23947,7 +23944,7 @@
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1021" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B1021" s="1" t="s">
         <v>24</v>
@@ -23970,7 +23967,7 @@
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1022" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B1022" s="1" t="s">
         <v>24</v>
@@ -23993,7 +23990,7 @@
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1023" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B1023" s="1" t="s">
         <v>24</v>
@@ -24016,7 +24013,7 @@
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1024" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E1024" s="1" t="s">
         <v>51</v>
@@ -24030,13 +24027,13 @@
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1025" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E1025" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1025" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1025" s="2">
         <v>46249</v>
@@ -24044,7 +24041,7 @@
     </row>
     <row r="1026" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1026" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B1026" s="1" t="s">
         <v>8</v>
@@ -24070,7 +24067,7 @@
         <v>10</v>
       </c>
       <c r="F1027" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1027" s="2">
         <v>45837</v>
@@ -24081,7 +24078,7 @@
         <v>16</v>
       </c>
       <c r="F1028" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1028" s="2">
         <v>45837</v>
@@ -24092,7 +24089,7 @@
         <v>26</v>
       </c>
       <c r="F1029" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1029" s="2">
         <v>45837</v>
@@ -24103,7 +24100,7 @@
         <v>10</v>
       </c>
       <c r="F1030" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1030" s="2">
         <v>45838</v>
@@ -24114,7 +24111,7 @@
         <v>16</v>
       </c>
       <c r="F1031" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1031" s="2">
         <v>45838</v>
@@ -24125,7 +24122,7 @@
         <v>26</v>
       </c>
       <c r="F1032" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1032" s="2">
         <v>45838</v>
@@ -24136,7 +24133,7 @@
         <v>10</v>
       </c>
       <c r="F1033" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1033" s="2">
         <v>45838</v>
@@ -24147,7 +24144,7 @@
         <v>16</v>
       </c>
       <c r="F1034" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1034" s="2">
         <v>45837</v>
@@ -24158,7 +24155,7 @@
         <v>26</v>
       </c>
       <c r="F1035" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1035" s="2">
         <v>45837</v>
@@ -24169,7 +24166,7 @@
         <v>10</v>
       </c>
       <c r="F1036" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1036" s="2">
         <v>45838</v>
@@ -24180,7 +24177,7 @@
         <v>16</v>
       </c>
       <c r="F1037" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1037" s="2">
         <v>45838</v>
@@ -24191,7 +24188,7 @@
         <v>26</v>
       </c>
       <c r="F1038" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1038" s="2">
         <v>45838</v>
@@ -24202,7 +24199,7 @@
         <v>10</v>
       </c>
       <c r="F1039" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1039" s="2">
         <v>45838</v>
@@ -24213,7 +24210,7 @@
         <v>16</v>
       </c>
       <c r="F1040" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1040" s="2">
         <v>45838</v>
@@ -24224,7 +24221,7 @@
         <v>26</v>
       </c>
       <c r="F1041" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1041" s="2">
         <v>45838</v>
@@ -24232,7 +24229,7 @@
     </row>
     <row r="1042" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1042" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1042" s="1" t="s">
         <v>43</v>
@@ -24255,10 +24252,10 @@
     </row>
     <row r="1043" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1043" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1043" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B1043" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="C1043" s="1">
         <v>7717043113</v>
@@ -24278,7 +24275,7 @@
     </row>
     <row r="1044" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1044" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B1044" s="1" t="s">
         <v>8</v>
@@ -24301,7 +24298,7 @@
     </row>
     <row r="1045" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1045" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B1045" s="1" t="s">
         <v>8</v>
@@ -24324,7 +24321,7 @@
     </row>
     <row r="1046" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1046" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B1046" s="1" t="s">
         <v>8</v>
@@ -24347,7 +24344,7 @@
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1047" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1047" s="1" t="s">
         <v>83</v>
@@ -24361,13 +24358,13 @@
     </row>
     <row r="1048" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1048" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E1048" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1048" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1048" s="2">
         <v>45556</v>
@@ -24375,13 +24372,13 @@
     </row>
     <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1049" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E1049" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1049" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1049" s="2">
         <v>46265</v>
@@ -24389,7 +24386,7 @@
     </row>
     <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1050" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1050" s="1" t="s">
         <v>24</v>
@@ -24412,7 +24409,7 @@
     </row>
     <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1051" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1051" s="1" t="s">
         <v>24</v>
@@ -24435,13 +24432,13 @@
     </row>
     <row r="1052" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1052" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E1052" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F1052" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1052" s="2">
         <v>46345</v>
@@ -24449,13 +24446,13 @@
     </row>
     <row r="1053" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1053" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E1053" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1053" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1053" s="2">
         <v>46358</v>
@@ -24463,13 +24460,13 @@
     </row>
     <row r="1054" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1054" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E1054" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1054" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1054" s="2">
         <v>46345</v>
@@ -24477,13 +24474,13 @@
     </row>
     <row r="1055" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1055" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E1055" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1055" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1055" s="2">
         <v>46380</v>
@@ -24491,7 +24488,7 @@
     </row>
     <row r="1056" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1056" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1056" s="1" t="s">
         <v>24</v>
@@ -24514,7 +24511,7 @@
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1057" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1057" s="1" t="s">
         <v>24</v>
@@ -24537,7 +24534,7 @@
     </row>
     <row r="1058" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1058" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1058" s="1" t="s">
         <v>24</v>
@@ -24560,7 +24557,7 @@
     </row>
     <row r="1059" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1059" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1059" s="1" t="s">
         <v>24</v>
@@ -24583,7 +24580,7 @@
     </row>
     <row r="1060" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1060" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1060" s="1" t="s">
         <v>24</v>
@@ -24609,7 +24606,7 @@
         <v>10</v>
       </c>
       <c r="F1061" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1061" s="1" t="e">
         <v>#REF!</v>
@@ -24620,7 +24617,7 @@
         <v>16</v>
       </c>
       <c r="F1062" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1062" s="1" t="e">
         <v>#REF!</v>
@@ -24631,7 +24628,7 @@
         <v>26</v>
       </c>
       <c r="F1063" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1063" s="1" t="e">
         <v>#REF!</v>
@@ -24642,7 +24639,7 @@
         <v>10</v>
       </c>
       <c r="F1064" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1064" s="1" t="e">
         <v>#REF!</v>
@@ -24653,7 +24650,7 @@
         <v>16</v>
       </c>
       <c r="F1065" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1065" s="1" t="e">
         <v>#REF!</v>
@@ -24664,7 +24661,7 @@
         <v>26</v>
       </c>
       <c r="F1066" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1066" s="1" t="e">
         <v>#REF!</v>
@@ -24672,7 +24669,7 @@
     </row>
     <row r="1067" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1067" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1067" s="1" t="s">
         <v>8</v>
@@ -24695,7 +24692,7 @@
     </row>
     <row r="1068" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1068" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B1068" s="1" t="s">
         <v>24</v>
@@ -24718,7 +24715,7 @@
     </row>
     <row r="1069" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1069" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B1069" s="1" t="s">
         <v>24</v>
@@ -24741,7 +24738,7 @@
     </row>
     <row r="1070" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1070" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E1070" s="1" t="s">
         <v>10</v>
@@ -24755,7 +24752,7 @@
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1071" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B1071" s="1" t="s">
         <v>24</v>
@@ -24778,7 +24775,7 @@
     </row>
     <row r="1072" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1072" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B1072" s="1" t="s">
         <v>24</v>
@@ -24801,7 +24798,7 @@
     </row>
     <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1073" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B1073" s="1" t="s">
         <v>24</v>
@@ -24824,13 +24821,13 @@
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1074" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E1074" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1074" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1074" s="2">
         <v>46320</v>
@@ -24838,7 +24835,7 @@
     </row>
     <row r="1075" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1075" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E1075" s="1" t="s">
         <v>10</v>
@@ -24852,7 +24849,7 @@
     </row>
     <row r="1076" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1076" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E1076" s="1" t="s">
         <v>10</v>
@@ -24866,7 +24863,7 @@
     </row>
     <row r="1077" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1077" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E1077" s="1" t="s">
         <v>10</v>
@@ -24880,7 +24877,7 @@
     </row>
     <row r="1078" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1078" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E1078" s="1" t="s">
         <v>10</v>
@@ -24894,7 +24891,7 @@
     </row>
     <row r="1079" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1079" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E1079" s="1" t="s">
         <v>87</v>
@@ -24941,7 +24938,7 @@
     </row>
     <row r="1083" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1083" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1083" s="1" t="s">
         <v>24</v>
@@ -24964,7 +24961,7 @@
     </row>
     <row r="1084" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1084" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1084" s="1" t="s">
         <v>24</v>
@@ -24987,7 +24984,7 @@
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1085" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1085" s="1" t="s">
         <v>24</v>
@@ -25010,7 +25007,7 @@
     </row>
     <row r="1086" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1086" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1086" s="1" t="s">
         <v>24</v>
@@ -25033,7 +25030,7 @@
     </row>
     <row r="1087" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1087" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1087" s="1" t="s">
         <v>24</v>
@@ -25059,7 +25056,7 @@
         <v>10</v>
       </c>
       <c r="F1088" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1088" s="2">
         <v>46292</v>
@@ -25070,7 +25067,7 @@
         <v>16</v>
       </c>
       <c r="F1089" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1089" s="2">
         <v>46292</v>
@@ -25081,7 +25078,7 @@
         <v>26</v>
       </c>
       <c r="F1090" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1090" s="2">
         <v>46292</v>
@@ -25089,7 +25086,7 @@
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1091" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B1091" s="1" t="s">
         <v>8</v>
@@ -25112,7 +25109,7 @@
     </row>
     <row r="1092" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1092" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B1092" s="1" t="s">
         <v>8</v>
@@ -25135,7 +25132,7 @@
     </row>
     <row r="1093" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1093" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B1093" s="1" t="s">
         <v>8</v>
@@ -25161,7 +25158,7 @@
         <v>10</v>
       </c>
       <c r="F1094" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1094" s="2">
         <v>46284</v>
@@ -25169,7 +25166,7 @@
     </row>
     <row r="1095" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1095" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E1095" s="1" t="s">
         <v>10</v>
@@ -25183,7 +25180,7 @@
     </row>
     <row r="1096" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1096" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E1096" s="1" t="s">
         <v>10</v>
@@ -25197,7 +25194,7 @@
     </row>
     <row r="1097" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1097" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B1097" s="1" t="s">
         <v>78</v>
@@ -25220,7 +25217,7 @@
     </row>
     <row r="1098" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1098" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B1098" s="1" t="s">
         <v>78</v>
@@ -25243,7 +25240,7 @@
     </row>
     <row r="1099" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1099" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1099" s="1" t="s">
         <v>24</v>
@@ -25266,7 +25263,7 @@
     </row>
     <row r="1100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1100" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B1100" s="1" t="s">
         <v>24</v>
@@ -25289,7 +25286,7 @@
     </row>
     <row r="1101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1101" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B1101" s="1" t="s">
         <v>24</v>
@@ -25315,7 +25312,7 @@
         <v>10</v>
       </c>
       <c r="F1102" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G1102" s="2">
         <v>46316</v>
@@ -25323,7 +25320,7 @@
     </row>
     <row r="1103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1103" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B1103" s="1" t="s">
         <v>24</v>
@@ -25346,7 +25343,7 @@
     </row>
     <row r="1104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1104" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B1104" s="1" t="s">
         <v>24</v>
@@ -25369,7 +25366,7 @@
     </row>
     <row r="1105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1105" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1105" s="1" t="s">
         <v>24</v>
@@ -25392,7 +25389,7 @@
     </row>
     <row r="1106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1106" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B1106" s="1" t="s">
         <v>24</v>
@@ -25415,7 +25412,7 @@
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1107" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B1107" s="1" t="s">
         <v>24</v>
@@ -25438,7 +25435,7 @@
     </row>
     <row r="1108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1108" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B1108" s="1" t="s">
         <v>24</v>
@@ -25461,10 +25458,10 @@
     </row>
     <row r="1109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1109" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1109" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="B1109" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="C1109" s="1">
         <v>3443901306</v>
@@ -25484,10 +25481,10 @@
     </row>
     <row r="1110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1110" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1110" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B1110" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="C1110" s="1">
         <v>3900005663</v>
@@ -25507,10 +25504,10 @@
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1111" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1111" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B1111" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="C1111" s="1">
         <v>3900005663</v>
@@ -25530,10 +25527,10 @@
     </row>
     <row r="1112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1112" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1112" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B1112" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="C1112" s="1">
         <v>3900005663</v>
@@ -25553,10 +25550,10 @@
     </row>
     <row r="1113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1113" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1113" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B1113" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="C1113" s="1">
         <v>3900005663</v>
@@ -25565,7 +25562,7 @@
         <v>14</v>
       </c>
       <c r="E1113" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F1113" s="1" t="s">
         <v>11</v>
@@ -25576,10 +25573,10 @@
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1114" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1114" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B1114" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="C1114" s="1">
         <v>3900005663</v>
@@ -25599,10 +25596,10 @@
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1115" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1115" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B1115" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="C1115" s="1">
         <v>3900005663</v>
@@ -25622,10 +25619,10 @@
     </row>
     <row r="1116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1116" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1116" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B1116" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="C1116" s="1">
         <v>3900005663</v>
@@ -25645,10 +25642,10 @@
     </row>
     <row r="1117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1117" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E1117" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1117" s="1" t="s">
         <v>328</v>
@@ -25659,7 +25656,7 @@
     </row>
     <row r="1118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1118" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B1118" s="1" t="s">
         <v>24</v>
@@ -25682,10 +25679,10 @@
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1119" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E1119" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1119" s="1" t="s">
         <v>328</v>
@@ -25696,7 +25693,7 @@
     </row>
     <row r="1120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1120" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B1120" s="1" t="s">
         <v>24</v>
@@ -25719,13 +25716,13 @@
     </row>
     <row r="1121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1121" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E1121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1121" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1121" s="2">
         <v>46082</v>
@@ -25733,13 +25730,13 @@
     </row>
     <row r="1122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1122" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E1122" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1122" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1122" s="2">
         <v>46082</v>
@@ -25747,13 +25744,13 @@
     </row>
     <row r="1123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1123" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E1123" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1123" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1123" s="2">
         <v>46082</v>
@@ -25761,7 +25758,7 @@
     </row>
     <row r="1124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1124" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B1124" s="1" t="s">
         <v>24</v>
@@ -25784,7 +25781,7 @@
     </row>
     <row r="1125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1125" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B1125" s="1" t="s">
         <v>24</v>
@@ -25807,13 +25804,13 @@
     </row>
     <row r="1126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1126" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E1126" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1126" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1126" s="2">
         <v>46255</v>
@@ -25821,13 +25818,13 @@
     </row>
     <row r="1127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1127" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E1127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1127" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1127" s="2">
         <v>46314</v>
@@ -25835,13 +25832,13 @@
     </row>
     <row r="1128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1128" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E1128" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1128" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1128" s="2">
         <v>46314</v>
@@ -25849,13 +25846,13 @@
     </row>
     <row r="1129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1129" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E1129" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1129" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1129" s="2">
         <v>46314</v>
@@ -25863,7 +25860,7 @@
     </row>
     <row r="1130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1130" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E1130" s="1" t="s">
         <v>87</v>
@@ -25877,7 +25874,7 @@
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1131" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E1131" s="1" t="s">
         <v>16</v>
@@ -25891,7 +25888,7 @@
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1132" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B1132" s="1" t="s">
         <v>8</v>
@@ -25914,7 +25911,7 @@
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1133" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B1133" s="1" t="s">
         <v>8</v>
@@ -25937,7 +25934,7 @@
     </row>
     <row r="1134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1134" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B1134" s="1" t="s">
         <v>8</v>
@@ -25960,7 +25957,7 @@
     </row>
     <row r="1135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1135" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B1135" s="1" t="s">
         <v>8</v>
@@ -25986,7 +25983,7 @@
         <v>10</v>
       </c>
       <c r="F1136" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1136" s="2">
         <v>46292</v>
@@ -25997,7 +25994,7 @@
         <v>16</v>
       </c>
       <c r="F1137" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1137" s="2">
         <v>46292</v>
@@ -26008,7 +26005,7 @@
         <v>26</v>
       </c>
       <c r="F1138" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1138" s="2">
         <v>46292</v>
@@ -26016,7 +26013,7 @@
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1139" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B1139" s="1" t="s">
         <v>8</v>
@@ -26039,7 +26036,7 @@
     </row>
     <row r="1140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1140" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B1140" s="1" t="s">
         <v>24</v>
@@ -26062,10 +26059,10 @@
     </row>
     <row r="1141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1141" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E1141" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1141" s="1" t="s">
         <v>328</v>
@@ -26076,13 +26073,13 @@
     </row>
     <row r="1142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1142" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E1142" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1142" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1142" s="2">
         <v>46516</v>
@@ -26090,7 +26087,7 @@
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1143" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E1143" s="1" t="s">
         <v>10</v>
@@ -26104,7 +26101,7 @@
     </row>
     <row r="1144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1144" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E1144" s="1" t="s">
         <v>16</v>
@@ -26118,7 +26115,7 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1145" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E1145" s="1" t="s">
         <v>26</v>
@@ -26132,7 +26129,7 @@
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1146" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B1146" s="1" t="s">
         <v>24</v>
@@ -26155,13 +26152,13 @@
     </row>
     <row r="1147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1147" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E1147" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1147" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1147" s="2">
         <v>46460</v>
@@ -26169,7 +26166,7 @@
     </row>
     <row r="1148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1148" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1148" s="1" t="s">
         <v>24</v>
@@ -26192,7 +26189,7 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1149" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1149" s="1" t="s">
         <v>24</v>
@@ -26215,7 +26212,7 @@
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1150" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1150" s="1" t="s">
         <v>24</v>
@@ -26238,7 +26235,7 @@
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1151" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1151" s="1" t="s">
         <v>24</v>
@@ -26261,7 +26258,7 @@
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1152" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1152" s="1" t="s">
         <v>24</v>
@@ -26284,7 +26281,7 @@
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1153" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1153" s="1" t="s">
         <v>24</v>
@@ -26307,13 +26304,13 @@
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1154" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E1154" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1154" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.3">
@@ -26321,7 +26318,7 @@
         <v>10</v>
       </c>
       <c r="F1155" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1155" s="2">
         <v>46350</v>
@@ -26332,7 +26329,7 @@
         <v>16</v>
       </c>
       <c r="F1156" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1156" s="2">
         <v>46350</v>
@@ -26343,7 +26340,7 @@
         <v>26</v>
       </c>
       <c r="F1157" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1157" s="2">
         <v>46350</v>
@@ -26351,7 +26348,7 @@
     </row>
     <row r="1158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1158" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B1158" s="1" t="s">
         <v>24</v>
@@ -26374,7 +26371,7 @@
     </row>
     <row r="1159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1159" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B1159" s="1" t="s">
         <v>24</v>
@@ -26397,7 +26394,7 @@
     </row>
     <row r="1160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1160" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B1160" s="1" t="s">
         <v>24</v>
@@ -26420,7 +26417,7 @@
     </row>
     <row r="1161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1161" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B1161" s="1" t="s">
         <v>24</v>
@@ -26443,7 +26440,7 @@
     </row>
     <row r="1162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1162" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B1162" s="1" t="s">
         <v>24</v>
@@ -26466,7 +26463,7 @@
     </row>
     <row r="1163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1163" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B1163" s="1" t="s">
         <v>24</v>
@@ -26489,7 +26486,7 @@
     </row>
     <row r="1164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1164" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B1164" s="1" t="s">
         <v>24</v>
@@ -26501,7 +26498,7 @@
         <v>9</v>
       </c>
       <c r="E1164" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1164" s="1" t="s">
         <v>11</v>
@@ -26512,7 +26509,7 @@
     </row>
     <row r="1165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1165" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E1165" s="1" t="s">
         <v>10</v>
@@ -26526,7 +26523,7 @@
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1166" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B1166" s="1" t="s">
         <v>24</v>
@@ -26552,7 +26549,7 @@
         <v>10</v>
       </c>
       <c r="F1167" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1167" s="2">
         <v>46360</v>
@@ -26563,7 +26560,7 @@
         <v>16</v>
       </c>
       <c r="F1168" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1168" s="2">
         <v>46367</v>
@@ -26574,7 +26571,7 @@
         <v>26</v>
       </c>
       <c r="F1169" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1169" s="2">
         <v>46367</v>
@@ -26582,7 +26579,7 @@
     </row>
     <row r="1170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1170" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E1170" s="1" t="s">
         <v>10</v>
@@ -26596,7 +26593,7 @@
     </row>
     <row r="1171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1171" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E1171" s="1" t="s">
         <v>10</v>
@@ -26610,13 +26607,13 @@
     </row>
     <row r="1172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1172" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E1172" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1172" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1172" s="2">
         <v>46516</v>
@@ -26624,7 +26621,7 @@
     </row>
     <row r="1173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1173" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E1173" s="1" t="s">
         <v>10</v>
@@ -26638,7 +26635,7 @@
     </row>
     <row r="1174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1174" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E1174" s="1" t="s">
         <v>10</v>
@@ -26652,13 +26649,13 @@
     </row>
     <row r="1175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1175" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E1175" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1175" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1175" s="2">
         <v>45337</v>
@@ -26666,7 +26663,7 @@
     </row>
     <row r="1176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1176" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B1176" s="1" t="s">
         <v>24</v>
@@ -26692,7 +26689,7 @@
         <v>87</v>
       </c>
       <c r="F1177" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1177" s="2">
         <v>46380</v>
@@ -26700,10 +26697,10 @@
     </row>
     <row r="1178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1178" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B1178" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C1178" s="1">
         <v>2465015109</v>
@@ -26723,7 +26720,7 @@
     </row>
     <row r="1179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1179" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B1179" s="1" t="s">
         <v>8</v>
@@ -26746,7 +26743,7 @@
     </row>
     <row r="1180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1180" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B1180" s="1" t="s">
         <v>8</v>
@@ -26769,13 +26766,13 @@
     </row>
     <row r="1181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1181" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E1181" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1181" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1181" s="2">
         <v>46404</v>
@@ -26783,13 +26780,13 @@
     </row>
     <row r="1182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1182" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E1182" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1182" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1182" s="2">
         <v>46404</v>
@@ -26800,7 +26797,7 @@
         <v>10</v>
       </c>
       <c r="F1183" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1183" s="2">
         <v>46374</v>
@@ -26811,7 +26808,7 @@
         <v>16</v>
       </c>
       <c r="F1184" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1184" s="2">
         <v>46374</v>
@@ -26822,7 +26819,7 @@
         <v>26</v>
       </c>
       <c r="F1185" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1185" s="2">
         <v>46374</v>
@@ -26830,7 +26827,7 @@
     </row>
     <row r="1186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1186" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E1186" s="1" t="s">
         <v>83</v>
@@ -26839,12 +26836,12 @@
         <v>84</v>
       </c>
       <c r="G1186" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="1187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1187" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D1187" s="1" t="s">
         <v>14</v>
@@ -26861,7 +26858,7 @@
     </row>
     <row r="1188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1188" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E1188" s="1" t="s">
         <v>83</v>
@@ -26875,10 +26872,10 @@
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1189" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E1189" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1189" s="1" t="s">
         <v>328</v>
@@ -26889,13 +26886,13 @@
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1190" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E1190" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1190" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1190" s="2">
         <v>45678</v>
@@ -26903,7 +26900,7 @@
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1191" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B1191" s="1" t="s">
         <v>24</v>
@@ -26915,7 +26912,7 @@
         <v>14</v>
       </c>
       <c r="E1191" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F1191" s="1" t="s">
         <v>11</v>
@@ -26926,7 +26923,7 @@
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1192" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B1192" s="1" t="s">
         <v>24</v>
@@ -26949,7 +26946,7 @@
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1193" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B1193" s="1" t="s">
         <v>24</v>
@@ -26972,7 +26969,7 @@
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1194" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B1194" s="1" t="s">
         <v>24</v>
@@ -26995,7 +26992,7 @@
     </row>
     <row r="1195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1195" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B1195" s="1" t="s">
         <v>24</v>
@@ -27018,7 +27015,7 @@
     </row>
     <row r="1196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1196" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B1196" s="1" t="s">
         <v>43</v>
@@ -27041,7 +27038,7 @@
     </row>
     <row r="1197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1197" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B1197" s="1" t="s">
         <v>43</v>
@@ -27064,7 +27061,7 @@
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1198" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B1198" s="1" t="s">
         <v>8</v>
@@ -27087,7 +27084,7 @@
     </row>
     <row r="1199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1199" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B1199" s="1" t="s">
         <v>8</v>
@@ -27110,7 +27107,7 @@
     </row>
     <row r="1200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1200" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B1200" s="1" t="s">
         <v>8</v>
@@ -27133,7 +27130,7 @@
     </row>
     <row r="1201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1201" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B1201" s="1" t="s">
         <v>8</v>
@@ -27156,7 +27153,7 @@
     </row>
     <row r="1202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1202" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B1202" s="1" t="s">
         <v>8</v>
@@ -27179,7 +27176,7 @@
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1203" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B1203" s="1" t="s">
         <v>8</v>
@@ -27202,7 +27199,7 @@
     </row>
     <row r="1204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1204" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1204" s="1" t="s">
         <v>43</v>
@@ -27225,7 +27222,7 @@
     </row>
     <row r="1205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1205" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1205" s="1" t="s">
         <v>43</v>
@@ -27248,13 +27245,13 @@
     </row>
     <row r="1206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1206" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E1206" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1206" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1206" s="2">
         <v>46432</v>
@@ -27262,13 +27259,13 @@
     </row>
     <row r="1207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1207" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E1207" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1207" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1207" s="2">
         <v>46431</v>
@@ -27276,13 +27273,13 @@
     </row>
     <row r="1208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1208" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E1208" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1208" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1208" s="2">
         <v>46431</v>
@@ -27290,7 +27287,7 @@
     </row>
     <row r="1209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1209" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E1209" s="1" t="s">
         <v>10</v>
@@ -27304,7 +27301,7 @@
     </row>
     <row r="1210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1210" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E1210" s="1" t="s">
         <v>16</v>
@@ -27318,7 +27315,7 @@
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1211" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E1211" s="1" t="s">
         <v>26</v>
@@ -27332,13 +27329,13 @@
     </row>
     <row r="1212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1212" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E1212" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1212" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1212" s="2">
         <v>45694</v>
@@ -27346,7 +27343,7 @@
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1213" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1213" s="1" t="s">
         <v>24</v>
@@ -27369,7 +27366,7 @@
     </row>
     <row r="1214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1214" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C1214" s="1">
         <v>7722384856</v>
@@ -27378,7 +27375,7 @@
         <v>10</v>
       </c>
       <c r="F1214" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1214" s="2">
         <v>46459</v>
@@ -27386,13 +27383,13 @@
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1215" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E1215" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1215" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1215" s="2">
         <v>46452</v>
@@ -27400,13 +27397,13 @@
     </row>
     <row r="1216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1216" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E1216" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1216" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1216" s="2">
         <v>46452</v>
@@ -27414,13 +27411,13 @@
     </row>
     <row r="1217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1217" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E1217" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1217" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1217" s="2">
         <v>46510</v>
@@ -27428,13 +27425,13 @@
     </row>
     <row r="1218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1218" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E1218" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F1218" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1218" s="2">
         <v>46510</v>
@@ -27442,13 +27439,13 @@
     </row>
     <row r="1219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1219" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E1219" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1219" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1219" s="2">
         <v>46445</v>
@@ -27456,13 +27453,13 @@
     </row>
     <row r="1220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1220" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E1220" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1220" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1220" s="2">
         <v>46437</v>
@@ -27470,10 +27467,10 @@
     </row>
     <row r="1221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1221" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E1221" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1221" s="1" t="s">
         <v>328</v>
@@ -27484,7 +27481,7 @@
     </row>
     <row r="1222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1222" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E1222" s="1" t="s">
         <v>10</v>
@@ -27498,7 +27495,7 @@
     </row>
     <row r="1223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1223" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E1223" s="1" t="s">
         <v>16</v>
@@ -27512,7 +27509,7 @@
     </row>
     <row r="1224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1224" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E1224" s="1" t="s">
         <v>26</v>
@@ -27526,7 +27523,7 @@
     </row>
     <row r="1225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1225" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E1225" s="1" t="s">
         <v>10</v>
@@ -27540,7 +27537,7 @@
     </row>
     <row r="1226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1226" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E1226" s="1" t="s">
         <v>16</v>
@@ -27554,7 +27551,7 @@
     </row>
     <row r="1227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1227" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E1227" s="1" t="s">
         <v>26</v>
@@ -27571,7 +27568,7 @@
         <v>10</v>
       </c>
       <c r="F1228" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1228" s="2">
         <v>46374</v>
@@ -27582,7 +27579,7 @@
         <v>16</v>
       </c>
       <c r="F1229" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1229" s="2">
         <v>46374</v>
@@ -27593,7 +27590,7 @@
         <v>26</v>
       </c>
       <c r="F1230" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1230" s="2">
         <v>46374</v>
@@ -27601,13 +27598,13 @@
     </row>
     <row r="1231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1231" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E1231" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F1231" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1231" s="2">
         <v>45960</v>
@@ -27615,13 +27612,13 @@
     </row>
     <row r="1232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1232" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E1232" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1232" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1232" s="2">
         <v>46471</v>
@@ -27629,7 +27626,7 @@
     </row>
     <row r="1233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1233" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E1233" s="1" t="s">
         <v>10</v>
@@ -27643,7 +27640,7 @@
     </row>
     <row r="1234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1234" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E1234" s="1" t="s">
         <v>16</v>
@@ -27657,7 +27654,7 @@
     </row>
     <row r="1235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1235" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E1235" s="1" t="s">
         <v>26</v>
@@ -27671,7 +27668,7 @@
     </row>
     <row r="1236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1236" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B1236" s="1" t="s">
         <v>43</v>
@@ -27694,7 +27691,7 @@
     </row>
     <row r="1237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1237" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B1237" s="1" t="s">
         <v>43</v>
@@ -27717,7 +27714,7 @@
     </row>
     <row r="1238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1238" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B1238" s="1" t="s">
         <v>24</v>
@@ -27740,7 +27737,7 @@
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1239" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B1239" s="1" t="s">
         <v>24</v>
@@ -27766,7 +27763,7 @@
         <v>10</v>
       </c>
       <c r="F1240" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1240" s="2">
         <v>46382</v>
@@ -27777,7 +27774,7 @@
         <v>16</v>
       </c>
       <c r="F1241" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1241" s="2">
         <v>46382</v>
@@ -27788,7 +27785,7 @@
         <v>26</v>
       </c>
       <c r="F1242" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1242" s="2">
         <v>46382</v>
@@ -27796,7 +27793,7 @@
     </row>
     <row r="1243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1243" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D1243" s="1" t="s">
         <v>14</v>
@@ -27813,13 +27810,13 @@
     </row>
     <row r="1244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1244" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E1244" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1244" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1244" s="2">
         <v>46529</v>
@@ -27827,13 +27824,13 @@
     </row>
     <row r="1245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1245" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E1245" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1245" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1245" s="2">
         <v>46529</v>
@@ -27841,13 +27838,13 @@
     </row>
     <row r="1246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1246" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E1246" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1246" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1246" s="2">
         <v>46529</v>
@@ -27855,7 +27852,7 @@
     </row>
     <row r="1247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1247" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E1247" s="1" t="s">
         <v>10</v>
@@ -27869,7 +27866,7 @@
     </row>
     <row r="1248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1248" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1248" s="1" t="s">
         <v>24</v>
@@ -27878,7 +27875,7 @@
         <v>51</v>
       </c>
       <c r="F1248" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1248" s="2">
         <v>46501</v>
@@ -27886,7 +27883,7 @@
     </row>
     <row r="1249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1249" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B1249" s="1" t="s">
         <v>24</v>
@@ -27909,7 +27906,7 @@
     </row>
     <row r="1250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1250" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B1250" s="1" t="s">
         <v>24</v>
@@ -27932,7 +27929,7 @@
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1251" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B1251" s="1" t="s">
         <v>24</v>
@@ -27958,12 +27955,12 @@
         <v>87</v>
       </c>
       <c r="F1252" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="1253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1253" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E1253" s="1" t="s">
         <v>10</v>
@@ -27977,7 +27974,7 @@
     </row>
     <row r="1254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1254" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E1254" s="1" t="s">
         <v>10</v>
@@ -27988,7 +27985,7 @@
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1255" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E1255" s="1" t="s">
         <v>10</v>
@@ -28002,10 +27999,10 @@
     </row>
     <row r="1256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1256" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B1256" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="B1256" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="E1256" s="1" t="s">
         <v>10</v>
@@ -28019,7 +28016,7 @@
     </row>
     <row r="1257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1257" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B1257" s="1" t="s">
         <v>8</v>
@@ -28042,7 +28039,7 @@
     </row>
     <row r="1258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1258" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B1258" s="1" t="s">
         <v>8</v>
@@ -28068,7 +28065,7 @@
         <v>87</v>
       </c>
       <c r="F1259" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1259" s="2">
         <v>46510</v>
@@ -28076,7 +28073,7 @@
     </row>
     <row r="1260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1260" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B1260" s="1" t="s">
         <v>24</v>
@@ -28099,7 +28096,7 @@
     </row>
     <row r="1261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1261" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B1261" s="1" t="s">
         <v>78</v>
@@ -28122,7 +28119,7 @@
     </row>
     <row r="1262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1262" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E1262" s="1" t="s">
         <v>10</v>
@@ -28136,7 +28133,7 @@
     </row>
     <row r="1263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1263" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E1263" s="1" t="s">
         <v>10</v>
@@ -28150,7 +28147,7 @@
     </row>
     <row r="1264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1264" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E1264" s="1" t="s">
         <v>16</v>
@@ -28164,7 +28161,7 @@
     </row>
     <row r="1265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1265" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E1265" s="1" t="s">
         <v>26</v>
@@ -28178,7 +28175,7 @@
     </row>
     <row r="1266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1266" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B1266" s="1" t="s">
         <v>24</v>
@@ -28201,13 +28198,13 @@
     </row>
     <row r="1267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1267" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E1267" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1267" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1267" s="2">
         <v>46545</v>
@@ -28215,7 +28212,7 @@
     </row>
     <row r="1268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1268" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E1268" s="1" t="s">
         <v>10</v>
@@ -28229,7 +28226,7 @@
     </row>
     <row r="1269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1269" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E1269" s="1" t="s">
         <v>16</v>
@@ -28243,7 +28240,7 @@
     </row>
     <row r="1270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1270" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E1270" s="1" t="s">
         <v>26</v>
@@ -28257,7 +28254,7 @@
     </row>
     <row r="1271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1271" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E1271" s="1" t="s">
         <v>10</v>
@@ -28271,7 +28268,7 @@
     </row>
     <row r="1272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1272" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E1272" s="1" t="s">
         <v>16</v>
@@ -28285,7 +28282,7 @@
     </row>
     <row r="1273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1273" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E1273" s="1" t="s">
         <v>26</v>
@@ -28299,13 +28296,13 @@
     </row>
     <row r="1274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1274" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E1274" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1274" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="E1274" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1274" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="G1274" s="2">
         <v>46516</v>
@@ -28313,13 +28310,13 @@
     </row>
     <row r="1275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1275" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E1275" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1275" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G1275" s="2">
         <v>46651</v>
@@ -28327,13 +28324,13 @@
     </row>
     <row r="1276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1276" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E1276" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1276" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="E1276" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="F1276" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="G1276" s="2">
         <v>46654</v>
@@ -28341,13 +28338,13 @@
     </row>
     <row r="1277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1277" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E1277" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1277" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1277" s="2">
         <v>46558</v>
@@ -28355,7 +28352,7 @@
     </row>
     <row r="1278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1278" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E1278" s="1" t="s">
         <v>10</v>
@@ -28366,7 +28363,7 @@
     </row>
     <row r="1279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1279" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B1279" s="1" t="s">
         <v>24</v>
@@ -28389,7 +28386,7 @@
     </row>
     <row r="1280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1280" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B1280" s="1" t="s">
         <v>24</v>
@@ -28412,7 +28409,7 @@
     </row>
     <row r="1281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1281" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B1281" s="1" t="s">
         <v>24</v>
@@ -28435,7 +28432,7 @@
     </row>
     <row r="1282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1282" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B1282" s="1" t="s">
         <v>24</v>
@@ -28458,7 +28455,7 @@
     </row>
     <row r="1283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1283" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B1283" s="1" t="s">
         <v>24</v>
@@ -28481,7 +28478,7 @@
     </row>
     <row r="1284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1284" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B1284" s="1" t="s">
         <v>24</v>
@@ -28504,7 +28501,7 @@
     </row>
     <row r="1285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1285" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B1285" s="1" t="s">
         <v>24</v>
@@ -28527,7 +28524,7 @@
     </row>
     <row r="1286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1286" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B1286" s="1" t="s">
         <v>8</v>
@@ -28550,7 +28547,7 @@
     </row>
     <row r="1287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1287" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B1287" s="1" t="s">
         <v>24</v>
@@ -28573,7 +28570,7 @@
     </row>
     <row r="1288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1288" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B1288" s="1" t="s">
         <v>24</v>
@@ -28596,7 +28593,7 @@
     </row>
     <row r="1289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1289" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B1289" s="1" t="s">
         <v>24</v>
@@ -28619,7 +28616,7 @@
     </row>
     <row r="1290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1290" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B1290" s="1" t="s">
         <v>78</v>
@@ -28642,7 +28639,7 @@
     </row>
     <row r="1291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1291" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B1291" s="1" t="s">
         <v>24</v>
@@ -28665,7 +28662,7 @@
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1292" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B1292" s="1" t="s">
         <v>24</v>
@@ -28688,7 +28685,7 @@
     </row>
     <row r="1293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1293" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B1293" s="1" t="s">
         <v>24</v>
@@ -28711,7 +28708,7 @@
     </row>
     <row r="1294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1294" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B1294" s="1" t="s">
         <v>8</v>
@@ -28734,7 +28731,7 @@
     </row>
     <row r="1295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1295" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B1295" s="1" t="s">
         <v>24</v>
@@ -28757,7 +28754,7 @@
     </row>
     <row r="1296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1296" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B1296" s="1" t="s">
         <v>24</v>
@@ -28780,7 +28777,7 @@
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1297" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B1297" s="1" t="s">
         <v>24</v>
@@ -28803,7 +28800,7 @@
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1298" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B1298" s="1" t="s">
         <v>24</v>
@@ -28823,7 +28820,7 @@
     </row>
     <row r="1299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1299" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B1299" s="1" t="s">
         <v>24</v>
@@ -28846,7 +28843,7 @@
     </row>
     <row r="1300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1300" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B1300" s="1" t="s">
         <v>24</v>
@@ -28866,7 +28863,7 @@
     </row>
     <row r="1301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1301" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B1301" s="1" t="s">
         <v>24</v>
@@ -28886,7 +28883,7 @@
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1302" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1302" s="1" t="s">
         <v>24</v>
@@ -28906,7 +28903,7 @@
     </row>
     <row r="1303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1303" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1303" s="1" t="s">
         <v>8</v>
@@ -28929,7 +28926,7 @@
     </row>
     <row r="1304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1304" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B1304" s="1" t="s">
         <v>24</v>
@@ -28952,7 +28949,7 @@
     </row>
     <row r="1305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1305" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B1305" s="1" t="s">
         <v>24</v>
@@ -28975,7 +28972,7 @@
     </row>
     <row r="1306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1306" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B1306" s="1" t="s">
         <v>8</v>
@@ -28998,7 +28995,7 @@
     </row>
     <row r="1307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1307" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B1307" s="1" t="s">
         <v>8</v>
@@ -29021,7 +29018,7 @@
     </row>
     <row r="1308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1308" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B1308" s="1" t="s">
         <v>24</v>
@@ -29044,7 +29041,7 @@
     </row>
     <row r="1309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1309" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B1309" s="1" t="s">
         <v>24</v>
@@ -29067,7 +29064,7 @@
     </row>
     <row r="1310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1310" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E1310" s="1" t="s">
         <v>10</v>
@@ -29078,7 +29075,7 @@
     </row>
     <row r="1311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1311" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B1311" s="1" t="s">
         <v>24</v>
@@ -29101,7 +29098,7 @@
     </row>
     <row r="1312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1312" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B1312" s="1" t="s">
         <v>24</v>
@@ -29124,13 +29121,13 @@
     </row>
     <row r="1313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1313" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E1313" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1313" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1313" s="2">
         <v>46604</v>
@@ -29138,13 +29135,13 @@
     </row>
     <row r="1314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1314" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E1314" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F1314" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1314" s="2">
         <v>46644</v>
@@ -29152,13 +29149,13 @@
     </row>
     <row r="1315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1315" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E1315" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1315" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="1316" spans="1:7" x14ac:dyDescent="0.3">
@@ -29166,7 +29163,7 @@
         <v>10</v>
       </c>
       <c r="F1316" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1317" spans="1:7" x14ac:dyDescent="0.3">
@@ -29174,23 +29171,23 @@
         <v>16</v>
       </c>
       <c r="F1317" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1318" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1318" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F1318" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="1319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1319" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B1319" s="1" t="s">
         <v>24</v>
@@ -29213,7 +29210,7 @@
     </row>
     <row r="1320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1320" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1320" s="1" t="s">
         <v>24</v>
@@ -29236,7 +29233,7 @@
     </row>
     <row r="1321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1321" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B1321" s="1" t="s">
         <v>24</v>
@@ -29259,7 +29256,7 @@
     </row>
     <row r="1322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1322" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B1322" s="1" t="s">
         <v>24</v>
@@ -29282,7 +29279,7 @@
     </row>
     <row r="1323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1323" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B1323" s="1" t="s">
         <v>24</v>
@@ -29305,7 +29302,7 @@
     </row>
     <row r="1324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1324" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B1324" s="1" t="s">
         <v>24</v>
@@ -29328,7 +29325,7 @@
     </row>
     <row r="1325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1325" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B1325" s="1" t="s">
         <v>24</v>
@@ -29351,7 +29348,7 @@
     </row>
     <row r="1326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1326" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B1326" s="1" t="s">
         <v>24</v>
@@ -29360,10 +29357,10 @@
         <v>3604011804</v>
       </c>
       <c r="D1326" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1326" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="E1326" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="F1326" s="1" t="s">
         <v>11</v>
@@ -29377,7 +29374,7 @@
         <v>10</v>
       </c>
       <c r="F1327" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1327" s="2">
         <v>46622</v>
@@ -29388,7 +29385,7 @@
         <v>10</v>
       </c>
       <c r="F1328" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G1328" s="2">
         <v>46654</v>
@@ -29396,7 +29393,7 @@
     </row>
     <row r="1329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1329" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1329" s="1" t="s">
         <v>24</v>
@@ -29419,7 +29416,7 @@
     </row>
     <row r="1330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1330" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B1330" s="1" t="s">
         <v>24</v>
@@ -29439,7 +29436,7 @@
     </row>
     <row r="1331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1331" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B1331" s="1" t="s">
         <v>24</v>
@@ -29459,7 +29456,7 @@
         <v>10</v>
       </c>
       <c r="F1332" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G1332" s="2">
         <v>45574</v>
@@ -29467,7 +29464,7 @@
     </row>
     <row r="1333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1333" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1333" s="1" t="s">
         <v>24</v>
@@ -29490,7 +29487,7 @@
     </row>
     <row r="1334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1334" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1334" s="1" t="s">
         <v>24</v>
@@ -29513,7 +29510,7 @@
     </row>
     <row r="1335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1335" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B1335" s="1" t="s">
         <v>8</v>
@@ -29536,7 +29533,7 @@
     </row>
     <row r="1336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1336" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B1336" s="1" t="s">
         <v>8</v>
@@ -29559,7 +29556,7 @@
     </row>
     <row r="1337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1337" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B1337" s="1" t="s">
         <v>8</v>
@@ -29582,7 +29579,7 @@
     </row>
     <row r="1338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1338" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B1338" s="1" t="s">
         <v>8</v>
@@ -29605,7 +29602,7 @@
     </row>
     <row r="1339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1339" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B1339" s="1" t="s">
         <v>24</v>
@@ -29625,7 +29622,7 @@
     </row>
     <row r="1340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1340" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B1340" s="1" t="s">
         <v>24</v>
@@ -29642,10 +29639,10 @@
     </row>
     <row r="1341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1341" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1341" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="B1341" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="D1341" s="1" t="s">
         <v>14</v>
@@ -29659,7 +29656,7 @@
     </row>
     <row r="1342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1342" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B1342" s="1" t="s">
         <v>28</v>
@@ -29682,7 +29679,7 @@
     </row>
     <row r="1343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1343" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B1343" s="1" t="s">
         <v>24</v>
@@ -29705,7 +29702,7 @@
     </row>
     <row r="1344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1344" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B1344" s="1" t="s">
         <v>8</v>
@@ -29725,19 +29722,19 @@
     </row>
     <row r="1345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1345" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B1345" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B1345" s="1" t="s">
+      <c r="D1345" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1345" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1345" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="D1345" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="E1345" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="F1345" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="G1345" s="2">
         <v>46377</v>
@@ -29745,7 +29742,7 @@
     </row>
     <row r="1346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1346" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B1346" s="1" t="s">
         <v>24</v>
@@ -29754,10 +29751,10 @@
         <v>3257017280</v>
       </c>
       <c r="D1346" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1346" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="E1346" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="F1346" s="1" t="s">
         <v>11</v>
@@ -29768,12 +29765,12 @@
         <v>10</v>
       </c>
       <c r="F1347" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1348" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B1348" s="1" t="s">
         <v>24</v>
@@ -29781,13 +29778,13 @@
     </row>
     <row r="1349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1349" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B1349" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C1349" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="C1349" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="D1349" s="1" t="s">
         <v>11</v>
@@ -29798,7 +29795,7 @@
     </row>
     <row r="1350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1350" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B1350" s="1" t="s">
         <v>24</v>
@@ -29807,10 +29804,10 @@
         <v>5834052005</v>
       </c>
       <c r="D1350" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1350" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="E1350" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="F1350" s="1" t="s">
         <v>11</v>
@@ -29818,7 +29815,7 @@
     </row>
     <row r="1351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1351" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B1351" s="1" t="s">
         <v>24</v>
@@ -29827,10 +29824,10 @@
         <v>7733660353</v>
       </c>
       <c r="D1351" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1351" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="E1351" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="F1351" s="1" t="s">
         <v>11</v>
@@ -29841,7 +29838,7 @@
     </row>
     <row r="1352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1352" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B1352" s="1" t="s">
         <v>24</v>
@@ -29850,10 +29847,10 @@
         <v>1644034949</v>
       </c>
       <c r="D1352" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1352" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="E1352" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="F1352" s="1" t="s">
         <v>11</v>
@@ -29864,16 +29861,16 @@
     </row>
     <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1353" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B1353" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1353" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1353" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="E1353" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="F1353" s="1" t="s">
         <v>11</v>
@@ -29881,7 +29878,7 @@
     </row>
     <row r="1354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1354" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B1354" s="1" t="s">
         <v>24</v>
@@ -29889,13 +29886,13 @@
     </row>
     <row r="1355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1355" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C1355" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="B1355" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C1355" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="D1355" s="1" t="s">
         <v>11</v>
@@ -29903,7 +29900,7 @@
     </row>
     <row r="1356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1356" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B1356" s="1" t="s">
         <v>8</v>
@@ -29912,10 +29909,10 @@
         <v>6317126596</v>
       </c>
       <c r="D1356" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E1356" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F1356" s="1" t="s">
         <v>11</v>
@@ -29923,7 +29920,7 @@
     </row>
     <row r="1357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1357" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B1357" s="1" t="s">
         <v>24</v>
@@ -29932,10 +29929,10 @@
         <v>7017462729</v>
       </c>
       <c r="D1357" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1357" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="E1357" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="F1357" s="1" t="s">
         <v>11</v>
@@ -29946,7 +29943,7 @@
     </row>
     <row r="1358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1358" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B1358" s="1" t="s">
         <v>24</v>
@@ -29955,10 +29952,10 @@
         <v>7811438750</v>
       </c>
       <c r="D1358" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1358" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="E1358" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="F1358" s="1" t="s">
         <v>11</v>
@@ -29969,7 +29966,7 @@
     </row>
     <row r="1359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1359" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B1359" s="1" t="s">
         <v>24</v>
@@ -29978,10 +29975,10 @@
         <v>5505217893</v>
       </c>
       <c r="D1359" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1359" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="E1359" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="F1359" s="1" t="s">
         <v>11</v>
@@ -29992,7 +29989,7 @@
     </row>
     <row r="1360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1360" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B1360" s="1" t="s">
         <v>24</v>
@@ -30000,13 +29997,13 @@
     </row>
     <row r="1361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1361" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B1361" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C1361" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D1361" s="1" t="s">
         <v>11</v>
@@ -30014,16 +30011,16 @@
     </row>
     <row r="1362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1362" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B1362" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B1362" s="1" t="s">
-        <v>735</v>
-      </c>
       <c r="D1362" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1362" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="E1362" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="F1362" s="1" t="s">
         <v>133</v>
@@ -30031,7 +30028,7 @@
     </row>
     <row r="1363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1363" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B1363" s="1" t="s">
         <v>8</v>
